--- a/Input/DC&C_Trollberget_GHG_data_AZ.xlsx
+++ b/Input/DC&C_Trollberget_GHG_data_AZ.xlsx
@@ -1,22 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10727"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/audreycampeau/Documents/DATA/TROLLBERGET DITCH/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/audreycampeau/Documents/DATA/TROLLBERGET DITCH/R/Input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17155D4C-092C-8547-A0CC-2EDF9E005C23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83B65448-E1CE-EC45-AF04-566C4B91BAD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37860" yWindow="1180" windowWidth="23260" windowHeight="12580" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="45540" yWindow="5200" windowWidth="23260" windowHeight="18880" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
     </ext>
@@ -373,7 +384,10 @@
   <dimension ref="A1:Q823"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
